--- a/documentation/Plantilla de historias de usuario BlocPosty.xlsx
+++ b/documentation/Plantilla de historias de usuario BlocPosty.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
   <si>
     <t>Proyecto</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Si se registra correctamente 201/ si no 400 </t>
   </si>
   <si>
-    <t>POST /auth/register/</t>
+    <t>POST user/auth/register/</t>
   </si>
   <si>
     <t>Terminada</t>
@@ -80,6 +80,9 @@
     <t>1h</t>
   </si>
   <si>
+    <t>develop-api</t>
+  </si>
+  <si>
     <t>HU-02-Back</t>
   </si>
   <si>
@@ -116,109 +119,256 @@
     <t>Get /bloc/</t>
   </si>
   <si>
+    <t>40 min</t>
+  </si>
+  <si>
+    <t>HU-05-Back</t>
+  </si>
+  <si>
+    <t>Como usuario quiero ver un bloc por su id</t>
+  </si>
+  <si>
+    <t>GET /bloc/{id}</t>
+  </si>
+  <si>
+    <t>HU-06-Back</t>
+  </si>
+  <si>
+    <t>Como usuario quiero borrar mi bloc por su id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si funciona devuelve un 204 si no 404 </t>
+  </si>
+  <si>
+    <t>DELETE /bloc/{id}</t>
+  </si>
+  <si>
+    <t>50 min</t>
+  </si>
+  <si>
+    <t>HU-07-Back</t>
+  </si>
+  <si>
+    <t>Como usuario quiero editar mi bloc por su id</t>
+  </si>
+  <si>
+    <t>PUT /bloc/{id}</t>
+  </si>
+  <si>
+    <t>1h 30 min</t>
+  </si>
+  <si>
+    <t>HU-08-Back</t>
+  </si>
+  <si>
+    <t>Como usuario quiero crear un bloc</t>
+  </si>
+  <si>
+    <t>Si funciona devuelve un 201 si no 400</t>
+  </si>
+  <si>
+    <t>POST /bloc/</t>
+  </si>
+  <si>
+    <t>HU-09-Back</t>
+  </si>
+  <si>
+    <t>Como usuario quiero editar mi propio perfil</t>
+  </si>
+  <si>
+    <t>Si funciona devuelve un 200 si no eres el usuario del perfil lanza una excepción y si no tiene datos correctos devuelve un 400</t>
+  </si>
+  <si>
+    <t>PUT /user/{id}</t>
+  </si>
+  <si>
+    <t>4 horas</t>
+  </si>
+  <si>
+    <t>HU-10-Back</t>
+  </si>
+  <si>
+    <t>Como usuario quiero enviar una peticion de edición a un bloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si funciona devuelve un 201 si no 404 </t>
+  </si>
+  <si>
+    <t>POST /peticion/{idBloc}</t>
+  </si>
+  <si>
+    <t>1h 15 min</t>
+  </si>
+  <si>
+    <t>HU-11-Back</t>
+  </si>
+  <si>
+    <t>Como usuario propietario aceptar la peticion de edición a un bloc mio</t>
+  </si>
+  <si>
+    <t>HU-12-Back</t>
+  </si>
+  <si>
+    <t>Como usuario propietario rechazar la peticion de edición a un bloc mio</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>HU-01-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobilequiero diseñar la página de login en la app</t>
+  </si>
+  <si>
+    <t>El usuario puede loguearse correctamentee</t>
+  </si>
+  <si>
+    <t>develop-mobile</t>
+  </si>
+  <si>
+    <t>HU-02-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero diseñar la página de registrarse en la app</t>
+  </si>
+  <si>
+    <t>El usuario puede registrarse correctamentee</t>
+  </si>
+  <si>
+    <t>HU-03-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero diseñar la página de inicio en la app</t>
+  </si>
+  <si>
+    <t>El usuario puede acceder y interactuar con la pantalla de inicio</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>HU-04-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero diseñar la página de busqueda en la app</t>
+  </si>
+  <si>
+    <t>El usuario puede acceder y interactuar con la pantalla de busqueda</t>
+  </si>
+  <si>
+    <t>HU-05-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero ver mi bloc</t>
+  </si>
+  <si>
+    <t>El usuario puede pinchar y ver su propio bloc</t>
+  </si>
+  <si>
+    <t>1h 30min</t>
+  </si>
+  <si>
+    <t>HU-06-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero poder editar añadir y borrar mis blocs</t>
+  </si>
+  <si>
+    <t>El usuario puede hacer las acciones listadas</t>
+  </si>
+  <si>
+    <t>HU-07-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero poder aceptar o rechazar las solicitudes a mi bloc</t>
+  </si>
+  <si>
+    <t>El usuario puede rechazar o aceptar las solicitudes</t>
+  </si>
+  <si>
+    <t>HU-08-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero en la pestaña de busqueda buscar blocs</t>
+  </si>
+  <si>
+    <t>El usuario puede buscar en la barra por nombre</t>
+  </si>
+  <si>
+    <t>HU-09-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero poder seguir blocs en la pestaña de busqueda</t>
+  </si>
+  <si>
+    <t>El usuario puede seguir otros blocs</t>
+  </si>
+  <si>
+    <t>1h 10min</t>
+  </si>
+  <si>
+    <t>HU-10-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador mobile quiero diseñar la pagina de perfil del usuario</t>
+  </si>
+  <si>
+    <t>El usuario puede visualizar su perfil</t>
+  </si>
+  <si>
+    <t>HU-11-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador web quiero poder loguearme en la página web</t>
+  </si>
+  <si>
+    <t>35 min</t>
+  </si>
+  <si>
+    <t>develop-web</t>
+  </si>
+  <si>
+    <t>HU-12-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador web quiero poder ver todos los blocs de los usuarios</t>
+  </si>
+  <si>
+    <t>El usuario puede visualizar los blocs</t>
+  </si>
+  <si>
+    <t>HU-13-Front</t>
+  </si>
+  <si>
+    <t>Como desarrollador web quiero poder borrar los blocs si tengo permisos de administrador</t>
+  </si>
+  <si>
+    <t>El usuario administrador puede borrar los blocs</t>
+  </si>
+  <si>
+    <t>Como desarrollador web quiero poder desplegar la aplicacion en la red</t>
+  </si>
+  <si>
+    <t>Se puede visualizar la aplicacion sin necesidad de la terminal</t>
+  </si>
+  <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t>BACKLOG ITEM TYPES</t>
+  </si>
+  <si>
+    <t>BACKLOG ITEM STATUS</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>No iniciada</t>
+  </si>
+  <si>
     <t>En progreso</t>
-  </si>
-  <si>
-    <t>HU-05-Back</t>
-  </si>
-  <si>
-    <t>Como usuario quiero ver un bloc por su id</t>
-  </si>
-  <si>
-    <t>GET /bloc/{id}</t>
-  </si>
-  <si>
-    <t>No iniciada</t>
-  </si>
-  <si>
-    <t>HU-06-Back</t>
-  </si>
-  <si>
-    <t>Como usuario quiero borrar mi bloc por su id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si funciona devuelve un 204 si no 404 </t>
-  </si>
-  <si>
-    <t>HU-07-Back</t>
-  </si>
-  <si>
-    <t>Como usuario quiero editar mi bloc por su id</t>
-  </si>
-  <si>
-    <t>HU-08-Back</t>
-  </si>
-  <si>
-    <t>Como usuario quiero crear un bloc</t>
-  </si>
-  <si>
-    <t>Si funciona devuelve un 201 si no 400</t>
-  </si>
-  <si>
-    <t>HU-09-Back</t>
-  </si>
-  <si>
-    <t>HU-10-Back</t>
-  </si>
-  <si>
-    <t>HU-01-Front</t>
-  </si>
-  <si>
-    <t>Como desarrollador web quiero diseñar la página de login en la app</t>
-  </si>
-  <si>
-    <t>El usuario puede loguearse correctamentee</t>
-  </si>
-  <si>
-    <t>1h 40 min</t>
-  </si>
-  <si>
-    <t>HU-02-Front</t>
-  </si>
-  <si>
-    <t>Como desarrollador web quiero diseñar la página de registrarse en la app</t>
-  </si>
-  <si>
-    <t>El usuario puede registrarse correctamentee</t>
-  </si>
-  <si>
-    <t>1h 30 min</t>
-  </si>
-  <si>
-    <t>HU-03-Front</t>
-  </si>
-  <si>
-    <t>Como desarrollador web quiero diseñar la página de inicio en la app</t>
-  </si>
-  <si>
-    <t>El usuario puede acceder y interactuar con la pantalla de inicio</t>
-  </si>
-  <si>
-    <t>HU-04-Front</t>
-  </si>
-  <si>
-    <t>Como desarrollador web quiero diseñar la página de busqueda en la app</t>
-  </si>
-  <si>
-    <t>El usuario puede acceder y interactuar con la pantalla de busqueda</t>
-  </si>
-  <si>
-    <t>HU-05-Front</t>
-  </si>
-  <si>
-    <t>Como desarrollador web quiero diseñar la página de otro usuario en la app</t>
-  </si>
-  <si>
-    <t>El usuario puede acceder y interactuar con la pantalla de otro usuario</t>
-  </si>
-  <si>
-    <t>BACKLOG ITEM TYPES</t>
-  </si>
-  <si>
-    <t>BACKLOG ITEM STATUS</t>
-  </si>
-  <si>
-    <t>Error</t>
   </si>
   <si>
     <t>En pruebas</t>
@@ -276,7 +426,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +437,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -332,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -382,11 +538,11 @@
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -396,6 +552,12 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,25 +947,27 @@
       <c r="J10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>20</v>
@@ -814,25 +978,27 @@
       <c r="J11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>20</v>
@@ -841,63 +1007,73 @@
         <v>1.0</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I13" s="17">
         <v>3.0</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>35</v>
+      <c r="A14" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I14" s="17">
         <v>3.0</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
@@ -914,239 +1090,258 @@
         <v>41</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="H15" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I15" s="17">
         <v>3.0</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H16" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I16" s="17">
         <v>5.0</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="13"/>
+      <c r="J16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="H17" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I17" s="17">
         <v>3.0</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>47</v>
+      <c r="A18" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="13"/>
+      <c r="G18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="17">
+        <v>13.0</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="13"/>
+      <c r="G19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="13"/>
+      <c r="G20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="C21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="H21" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="17">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="E22" s="14"/>
       <c r="F22" s="10"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="10"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="17">
-        <v>8.0</v>
-      </c>
-      <c r="J23" s="19"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="13"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="A24" s="13"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="10"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="J24" s="19"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="13"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="E25" s="14"/>
       <c r="F25" s="10"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="J25" s="19"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="13"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1159,7 +1354,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="16"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="19"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="13"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1172,7 +1367,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="16"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="19"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="13"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1184,191 +1379,414 @@
       <c r="F28" s="10"/>
       <c r="G28" s="23"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="13"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="13"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="13"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="13"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="22"/>
+      <c r="A33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="22"/>
+      <c r="E33" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="13"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="22"/>
+      <c r="A34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="22"/>
+      <c r="E34" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="F34" s="10"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="13"/>
+      <c r="H34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="22"/>
+      <c r="A35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="13"/>
+      <c r="H35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="13"/>
+      <c r="H36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="22"/>
+      <c r="A37" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="13"/>
+      <c r="H37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="22"/>
+      <c r="E38" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="13"/>
+      <c r="H38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="22"/>
+      <c r="E39" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="13"/>
+      <c r="H39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="22"/>
+      <c r="E40" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="13"/>
+      <c r="H40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="22"/>
+      <c r="E41" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="13"/>
+      <c r="H41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="22"/>
+      <c r="E42" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="13"/>
+      <c r="H42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13"/>
@@ -1379,8 +1797,8 @@
       <c r="F43" s="10"/>
       <c r="G43" s="23"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="13"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -1392,8 +1810,8 @@
       <c r="F44" s="10"/>
       <c r="G44" s="23"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="13"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -1405,8 +1823,8 @@
       <c r="F45" s="10"/>
       <c r="G45" s="23"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="13"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -1418,8 +1836,8 @@
       <c r="F46" s="10"/>
       <c r="G46" s="23"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
       <c r="K46" s="13"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -1431,8 +1849,8 @@
       <c r="F47" s="10"/>
       <c r="G47" s="23"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="13"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -1444,8 +1862,8 @@
       <c r="F48" s="10"/>
       <c r="G48" s="23"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
       <c r="K48" s="13"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -6276,7 +6694,7 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
@@ -6284,13 +6702,13 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
@@ -6354,18 +6772,18 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -6373,12 +6791,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
